--- a/sitepreview/trust/all-profiles.xlsx
+++ b/sitepreview/trust/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T23:34:44+00:00</t>
+    <t>2024-11-04T12:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -401,7 +401,7 @@
     <t>HCert.3</t>
   </si>
   <si>
-    <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.VS}
+    <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSetVS}
 </t>
   </si>
   <si>
@@ -414,7 +414,7 @@
     <t>HCert.4</t>
   </si>
   <si>
-    <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.TR}
+    <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSetTR}
 </t>
   </si>
   <si>
@@ -435,6 +435,19 @@
   </si>
   <si>
     <t>SMART Health Link</t>
+  </si>
+  <si>
+    <t>HCert.-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://smart.who.int/icvp/StructureDefinition/DVCPayload
+</t>
+  </si>
+  <si>
+    <t>DVC</t>
+  </si>
+  <si>
+    <t>Digital Vaccination Certificate (Proposed)</t>
   </si>
   <si>
     <t>SchemeInformation</t>
@@ -1548,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
@@ -1556,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -1572,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
@@ -1580,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
@@ -1588,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
@@ -1634,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
@@ -1670,7 +1683,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
@@ -1710,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108">
@@ -1718,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109">
@@ -1734,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111">
@@ -1742,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112">
@@ -1750,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
@@ -1796,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119">
@@ -1832,7 +1845,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124">
@@ -1872,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129">
@@ -1880,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132">
@@ -1904,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133">
@@ -1912,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134">
@@ -1958,7 +1971,7 @@
         <v>22</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140">
@@ -1994,7 +2007,7 @@
         <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145">
@@ -2028,7 +2041,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK50"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3940,7 +3953,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>137</v>
@@ -3969,13 +3982,13 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>139</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4026,7 +4039,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -4043,13 +4056,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4057,10 +4070,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>73</v>
@@ -4072,13 +4085,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4129,13 +4142,13 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -4146,13 +4159,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4175,13 +4188,13 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4232,7 +4245,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4249,13 +4262,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4278,13 +4291,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4335,7 +4348,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4352,13 +4365,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4381,13 +4394,13 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4438,7 +4451,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4455,13 +4468,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4472,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>73</v>
@@ -4484,13 +4497,13 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4541,24 +4554,24 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>156</v>
@@ -4572,10 +4585,10 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>73</v>
@@ -4587,10 +4600,10 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>158</v>
@@ -4644,24 +4657,24 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>160</v>
@@ -4671,14 +4684,14 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>73</v>
@@ -4690,17 +4703,15 @@
         <v>73</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>73</v>
@@ -4737,46 +4748,46 @@
         <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -4789,26 +4800,24 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4844,19 +4853,19 @@
         <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4868,26 +4877,26 @@
         <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4896,22 +4905,26 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P28" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4959,10 +4972,10 @@
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -4971,18 +4984,18 @@
         <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4990,7 +5003,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -5005,13 +5018,13 @@
         <v>73</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -5062,10 +5075,10 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -5079,13 +5092,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5093,10 +5106,10 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>73</v>
@@ -5108,13 +5121,13 @@
         <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5165,13 +5178,13 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -5182,13 +5195,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5211,13 +5224,13 @@
         <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5268,7 +5281,7 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5285,13 +5298,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5314,13 +5327,13 @@
         <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5371,7 +5384,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5388,13 +5401,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5417,13 +5430,13 @@
         <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5474,7 +5487,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5491,13 +5504,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5520,13 +5533,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5577,7 +5590,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -5594,13 +5607,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5623,13 +5636,13 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -5680,7 +5693,7 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -5697,13 +5710,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5726,13 +5739,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5783,7 +5796,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -5800,13 +5813,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5814,10 +5827,10 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>73</v>
@@ -5829,13 +5842,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -5886,13 +5899,13 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5903,13 +5916,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5917,10 +5930,10 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>73</v>
@@ -5932,13 +5945,13 @@
         <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -5989,13 +6002,13 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6006,13 +6019,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6038,10 +6051,10 @@
         <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6092,7 +6105,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6109,13 +6122,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6123,10 +6136,10 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>73</v>
@@ -6138,13 +6151,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6195,13 +6208,13 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6212,13 +6225,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6241,13 +6254,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6298,7 +6311,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6315,13 +6328,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6344,10 +6357,10 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>212</v>
@@ -6401,7 +6414,7 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -6418,7 +6431,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>213</v>
@@ -6432,10 +6445,10 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>73</v>
@@ -6447,13 +6460,13 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -6504,13 +6517,13 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>73</v>
@@ -6521,13 +6534,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6535,10 +6548,10 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>73</v>
@@ -6550,7 +6563,7 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>218</v>
@@ -6607,13 +6620,13 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
@@ -6624,7 +6637,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>220</v>
@@ -6638,10 +6651,10 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>73</v>
@@ -6653,13 +6666,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6710,13 +6723,13 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6727,13 +6740,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6759,10 +6772,10 @@
         <v>80</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6813,7 +6826,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -6830,13 +6843,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6844,7 +6857,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -6862,10 +6875,10 @@
         <v>80</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -6916,10 +6929,10 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -6933,13 +6946,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6965,10 +6978,10 @@
         <v>80</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7019,7 +7032,7 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
@@ -7036,13 +7049,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7068,10 +7081,10 @@
         <v>80</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -7122,7 +7135,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -7139,13 +7152,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7171,10 +7184,10 @@
         <v>80</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7225,7 +7238,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -7237,6 +7250,109 @@
         <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>73</v>
       </c>
     </row>
